--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,7 +605,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
